--- a/data/Supported Graphene Analysis.xlsx
+++ b/data/Supported Graphene Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinkrempl/Documents/TRI ORR/Data/DFT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8E1FE9-261D-024C-B359-B3F7A8B726C5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF91AC9-A8ED-8041-992E-8A2DDD087076}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{4048BA77-A555-4A4B-8B58-A70623B0558E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{4048BA77-A555-4A4B-8B58-A70623B0558E}"/>
   </bookViews>
   <sheets>
     <sheet name="Lattice matching" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="vacuum" sheetId="4" r:id="rId3"/>
     <sheet name="layers" sheetId="5" r:id="rId4"/>
     <sheet name="pwcutoff " sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="46">
   <si>
     <t>001</t>
   </si>
@@ -115,9 +116,6 @@
     <t>elec.e out</t>
   </si>
   <si>
-    <t>bader failed</t>
-  </si>
-  <si>
     <t>bader per C</t>
   </si>
   <si>
@@ -145,9 +143,6 @@
     <t>elec.e out dipole on</t>
   </si>
   <si>
-    <t>bulk bader weird</t>
-  </si>
-  <si>
     <t>check bulk magmoms</t>
   </si>
   <si>
@@ -158,12 +153,31 @@
   </si>
   <si>
     <t>layers</t>
+  </si>
+  <si>
+    <t>dG ads</t>
+  </si>
+  <si>
+    <t>2x2</t>
+  </si>
+  <si>
+    <t>pw cutoff</t>
+  </si>
+  <si>
+    <t>4x4</t>
+  </si>
+  <si>
+    <t>2x2 trifold ontop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.00000000000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -201,16 +215,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,7 +545,7 @@
   <dimension ref="B2:L47"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -598,22 +614,22 @@
       <c r="E5">
         <v>0.01</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>2.4901187</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>2.4901187</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>5.2660084653072703</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="4">
         <v>-8.9264542162520392E-3</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="4">
         <v>-8.9264542162524798E-3</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="5">
         <v>59.999999999999901</v>
       </c>
     </row>
@@ -630,22 +646,22 @@
       <c r="E6">
         <v>0.01</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>6.4609920000000001</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>19.255064099999998</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>123.038432841599</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="4">
         <v>9.7765436880283794E-3</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="4">
         <v>1.6484513939999099E-2</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="5">
         <v>0.29264690570200003</v>
       </c>
     </row>
@@ -662,22 +678,22 @@
       <c r="E7">
         <v>0.01</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>2.4901187</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>23.284424699999999</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>57.8514608956351</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="4">
         <v>-8.9264542162524798E-3</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="4">
         <v>1.02541519206751E-2</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="5">
         <v>5.8201933957306502E-2</v>
       </c>
     </row>
@@ -694,22 +710,22 @@
       <c r="E8">
         <v>0.01</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>4.3095299999999996</v>
       </c>
       <c r="G8">
         <v>12.3626</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <v>52.660084653072602</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="4">
         <v>-8.9264542162528198E-3</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="4">
         <v>-2.6806572059039301E-3</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="5">
         <v>1.4210854715202001E-14</v>
       </c>
     </row>
@@ -726,22 +742,22 @@
       <c r="E9">
         <v>0.01</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>10.548054199999999</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>21.096108399999999</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="3">
         <v>217.019396667997</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="4">
         <v>1.9013430954116999E-2</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="4">
         <v>-1.3011676374505799E-3</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="5">
         <v>0.36505132780217697</v>
       </c>
     </row>
@@ -749,12 +765,12 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11">
@@ -769,22 +785,22 @@
       <c r="E11">
         <v>0.01</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>4.98942</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <v>29.936520000000002</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="3">
         <v>147.44823702860299</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="4">
         <v>-1.1548436491616699E-2</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="4">
         <v>-1.3051415231738401E-3</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="3">
         <v>0</v>
       </c>
     </row>
@@ -801,22 +817,22 @@
       <c r="E12">
         <v>0.01</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>8.6419288999999999</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="3">
         <v>12.2215331</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="3">
         <v>105.320169306145</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="4">
         <v>-1.15484364916169E-2</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="4">
         <v>8.8341525215758204E-3</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="3">
         <v>2.8421709430404001E-14</v>
       </c>
     </row>
@@ -833,22 +849,22 @@
       <c r="E13">
         <v>0.01</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>4.98942</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="3">
         <v>4.98942</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="3">
         <v>21.064033861228999</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="4">
         <v>-1.15484364916162E-2</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="4">
         <v>-1.1548436491616401E-2</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="3">
         <v>0</v>
       </c>
     </row>
@@ -865,22 +881,22 @@
       <c r="E14">
         <v>0.01</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>4.98942</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="3">
         <v>29.936520000000002</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="3">
         <v>147.44823702860299</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="4">
         <v>-1.15484364916169E-2</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="4">
         <v>-1.30514152317395E-3</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="3">
         <v>1.4210854715202001E-14</v>
       </c>
     </row>
@@ -897,22 +913,22 @@
       <c r="E15">
         <v>0.01</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>4.98942</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="3">
         <v>51.490234200000003</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="3">
         <v>252.76840633474899</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="4">
         <v>-1.15484364916162E-2</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="4">
         <v>-3.4604455068828399E-3</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="3">
         <v>2.25564187795868E-2</v>
       </c>
     </row>
@@ -929,22 +945,22 @@
       <c r="E16">
         <v>0.01</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>4.98942</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="3">
         <v>46.804908400000002</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="3">
         <v>231.70437247351899</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="4">
         <v>-1.15484364916176E-2</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="4">
         <v>3.7773078830720601E-3</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="3">
         <v>4.2632564145605999E-14</v>
       </c>
     </row>
@@ -952,12 +968,12 @@
       <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="2"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18">
@@ -972,22 +988,22 @@
       <c r="E18">
         <v>0.01</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>8.6347573000000004</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="3">
         <v>17.2695145</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="3">
         <v>147.44823702860299</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="4">
         <v>-1.0727469153108699E-2</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="4">
         <v>-4.7566652387964699E-4</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="3">
         <v>2.8421709430404001E-14</v>
       </c>
     </row>
@@ -1004,22 +1020,22 @@
       <c r="E19">
         <v>0.01</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <v>18.112400000000001</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="3">
         <v>19.3079</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="3">
         <v>315.96050791843601</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="4">
         <v>-1.82505633592384E-2</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="4">
         <v>1.3702691770434299E-2</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="3">
         <v>0.44812092353400601</v>
       </c>
     </row>
@@ -1036,22 +1052,22 @@
       <c r="E20">
         <v>0.01</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3">
         <v>10.9222</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="3">
         <v>10.9222</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="3">
         <v>100.05416084083799</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="4">
         <v>-1.5893418461761701E-2</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="4">
         <v>-1.5893418461761899E-2</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="3">
         <v>2.1316282072802999E-14</v>
       </c>
     </row>
@@ -1068,22 +1084,22 @@
       <c r="E21">
         <v>0.01</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <v>10.9222</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="3">
         <v>24.726099999999999</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="3">
         <v>263.30042326536301</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="4">
         <v>-1.5893418461761899E-2</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="4">
         <v>-2.717034487689E-3</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="3">
         <v>0.24658380771960201</v>
       </c>
     </row>
@@ -1100,22 +1116,22 @@
       <c r="E22">
         <v>0.01</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="3">
         <v>10.9222</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="3">
         <v>33.885199999999998</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="3">
         <v>363.35458410619998</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="4">
         <v>-1.5893418461762399E-2</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="4">
         <v>4.5110635345490998E-4</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="3">
         <v>0.31541783033580301</v>
       </c>
     </row>
@@ -1132,22 +1148,22 @@
       <c r="E23">
         <v>0.01</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="3">
         <v>13.923126999999999</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="3">
         <v>20.795248999999998</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="3">
         <v>279.09844866128299</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="4">
         <v>-1.39033121187045E-2</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="4">
         <v>1.31476943613164E-2</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="3">
         <v>0.31164939805302</v>
       </c>
     </row>
@@ -1155,12 +1171,12 @@
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="2"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="3"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
@@ -1175,22 +1191,22 @@
       <c r="E25">
         <v>0.01</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="3">
         <v>9.8725400000000008</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="3">
         <v>9.8725400000000008</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="3">
         <v>84.256135444916296</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="4">
         <v>-9.0556479974235305E-4</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="4">
         <v>-9.0556479974246396E-4</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="3">
         <v>59.999999999999901</v>
       </c>
     </row>
@@ -1207,22 +1223,22 @@
       <c r="E26">
         <v>0.01</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="3">
         <v>4.28064</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="3">
         <v>21.905200000000001</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="3">
         <v>93.768275327999902</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="4">
         <v>-2.23702848543783E-3</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="4">
         <v>1.3142998009604501E-2</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1239,22 +1255,22 @@
       <c r="E27">
         <v>0.01</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="3">
         <v>13.2578525</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="3">
         <v>16.1982085</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="3">
         <v>210.64033861229001</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="4">
         <v>-1.5804684474156699E-2</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="4">
         <v>-1.74222223144293E-3</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="3">
         <v>3.4038896278175898E-2</v>
       </c>
     </row>
@@ -1271,22 +1287,22 @@
       <c r="E28">
         <v>0.01</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="3">
         <v>10.9526</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="3">
         <v>13.067615</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="3">
         <v>136.916220097989</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="4">
         <v>-1.8624901404510601E-2</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="4">
         <v>-1.47684445291496E-3</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="3">
         <v>0.42460410656207098</v>
       </c>
     </row>
@@ -1303,22 +1319,22 @@
       <c r="E29">
         <v>0.01</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="3">
         <v>13.257849999999999</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="3">
         <v>18.591999999999999</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="3">
         <v>231.70437247351899</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="4">
         <v>-1.5804684474156099E-2</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="4">
         <v>1.3493320800772499E-3</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="3">
         <v>0.18129308995007401</v>
       </c>
     </row>
@@ -1326,12 +1342,12 @@
       <c r="B30" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="2"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="3"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31">
@@ -1346,22 +1362,22 @@
       <c r="E31">
         <v>0.01</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="3">
         <v>12.644</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="3">
         <v>17.022600000000001</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="3">
         <v>199.84150831259601</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="4">
         <v>1.3373398643921E-2</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="4">
         <v>1.40203016135043E-2</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="3">
         <v>1.462018809E-2</v>
       </c>
     </row>
@@ -1378,22 +1394,22 @@
       <c r="E32">
         <v>0.01</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="3">
         <v>13.033200000000001</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="3">
         <v>16.4251</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="3">
         <v>205.374330146983</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="4">
         <v>-1.6883397458812399E-2</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="4">
         <v>-1.55357387006681E-2</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="3">
         <v>0.46037750655330001</v>
       </c>
     </row>
@@ -1410,22 +1426,22 @@
       <c r="E33">
         <v>0.01</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="3">
         <v>8.9407200000000007</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="3">
         <v>8.9407200000000007</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="3">
         <v>68.458110048994499</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="4">
         <v>-5.5698305421072397E-3</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="4">
         <v>-5.5698305421072397E-3</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1442,22 +1458,22 @@
       <c r="E34">
         <v>0.01</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="3">
         <v>14.826000000000001</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="3">
         <v>19.485800000000001</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="3">
         <v>284.36445712659201</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="4">
         <v>-2.0988595370090499E-3</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="4">
         <v>-1.1627329561456999E-2</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="3">
         <v>0.295902728782934</v>
       </c>
     </row>
@@ -1474,22 +1490,22 @@
       <c r="E35">
         <v>0.01</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="3">
         <v>13.77858</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="3">
         <v>19.485800000000001</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="3">
         <v>258.03441480005603</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="4">
         <v>-3.5588473568554102E-3</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="4">
         <v>-1.16273295614571E-2</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="3">
         <v>0.28397659492400001</v>
       </c>
     </row>
@@ -1506,22 +1522,22 @@
       <c r="E36">
         <v>0.01</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="3">
         <v>9.9960000000000004</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="3">
         <v>22.35181</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="3">
         <v>210.64033861229001</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="4">
         <v>-1.3248942910312001E-2</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="4">
         <v>-1.9435530901065302E-2</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="3">
         <v>8.2945561239171101E-2</v>
       </c>
     </row>
@@ -1538,22 +1554,22 @@
       <c r="E37">
         <v>0.01</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="3">
         <v>17.021999999999998</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="3">
         <v>17.021999999999998</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="3">
         <v>281.201928016887</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="4">
         <v>1.4020301613502499E-2</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="4">
         <v>1.4020301613501601E-2</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="3">
         <v>0.39438407812769999</v>
       </c>
     </row>
@@ -1561,12 +1577,12 @@
       <c r="B38" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="2"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="3"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39">
@@ -1581,22 +1597,22 @@
       <c r="E39">
         <v>0.01</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="3">
         <v>9.0009999999999994</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="3">
         <v>15.913</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="3">
         <v>141.807776767836</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="4">
         <v>-1.23202789700529E-2</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="4">
         <v>1.61403046351795E-2</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="3">
         <v>0.38292192885509702</v>
       </c>
     </row>
@@ -1613,22 +1629,22 @@
       <c r="E40">
         <v>0.01</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="3">
         <v>12.73</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="3">
         <v>14.927852</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="3">
         <v>171.89698384718599</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="4">
         <v>6.4943586912951101E-3</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="4">
         <v>4.7984950457298199E-3</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40" s="3">
         <v>4.5594225372795401E-2</v>
       </c>
     </row>
@@ -1645,22 +1661,22 @@
       <c r="E41">
         <v>0.01</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="3">
         <v>9.0018340000000006</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="3">
         <v>9.0018340000000006</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="3">
         <v>68.458110048994499</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="4">
         <v>-1.23202789700535E-2</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="4">
         <v>-1.23202789700533E-2</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="3">
         <v>59.999999999999901</v>
       </c>
     </row>
@@ -1677,22 +1693,22 @@
       <c r="E42">
         <v>0.01</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="3">
         <v>17.138000000000002</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="3">
         <v>18.828600000000002</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="3">
         <v>321.22651638374299</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="4">
         <v>7.1368703167005096E-3</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="4">
         <v>-1.12355123377465E-2</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="3">
         <v>0.172274026209251</v>
       </c>
     </row>
@@ -1709,22 +1725,22 @@
       <c r="E43">
         <v>0.01</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="3">
         <v>13.872</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="3">
         <v>19.619</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="3">
         <v>258.03441480005603</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="4">
         <v>-1.0322946857242599E-2</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="4">
         <v>-1.8336658123988499E-2</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="3">
         <v>0.283976594924226</v>
       </c>
     </row>
@@ -1741,22 +1757,22 @@
       <c r="E44">
         <v>0.01</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="3">
         <v>9.00183</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="3">
         <v>39.238079999999997</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="3">
         <v>352.82256717558499</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="4">
         <v>-1.2320278970055901E-2</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="4">
         <v>1.1387408234965601E-2</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44" s="3">
         <v>0.49371514890667301</v>
       </c>
     </row>
@@ -1773,40 +1789,40 @@
       <c r="E45">
         <v>0.01</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="3">
         <v>17.1389</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="3">
         <v>17.1389</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="3">
         <v>285.05889900745001</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="4">
         <v>7.1368703166994002E-3</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="4">
         <v>7.1368703166980697E-3</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="3">
         <v>0.394384078127686</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H5:H45">
@@ -1829,8 +1845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA11F605-3F2C-8949-A07B-2C4748B8A05E}">
   <dimension ref="B2:U92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1839,6 +1855,7 @@
     <col min="12" max="12" width="11.33203125" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
     <col min="14" max="14" width="13.33203125" customWidth="1"/>
+    <col min="17" max="17" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1852,7 +1869,7 @@
         <v>331</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
@@ -1864,31 +1881,31 @@
         <v>26</v>
       </c>
       <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
         <v>40</v>
       </c>
-      <c r="I4" t="s">
-        <v>42</v>
-      </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" t="s">
         <v>31</v>
       </c>
-      <c r="N4" t="s">
-        <v>32</v>
-      </c>
       <c r="O4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" t="s">
         <v>29</v>
       </c>
-      <c r="P4" t="s">
-        <v>30</v>
-      </c>
       <c r="Q4" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.2">
@@ -1896,12 +1913,12 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="7">
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="F5">
@@ -1932,9 +1949,13 @@
         <f>AVERAGE(M5:N5)</f>
         <v>-6.989999999999999E-2</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="3">
         <f t="shared" ref="P5:P24" si="0">K6-K5</f>
         <v>-458.35122749999937</v>
+      </c>
+      <c r="Q5" s="8">
+        <f>K6-(K5-460.15205)</f>
+        <v>1.8008225000012317</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.2">
@@ -1942,12 +1963,12 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="7">
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="F6">
@@ -1968,31 +1989,34 @@
       <c r="L6">
         <v>-25227.010756200001</v>
       </c>
-      <c r="P6" s="2"/>
-      <c r="R6" s="5"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="6"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="P7" s="2"/>
-      <c r="T7" s="5"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="8"/>
+      <c r="T7" s="6"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>441</v>
       </c>
-      <c r="P8" s="2"/>
-      <c r="T8" s="5"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="8"/>
+      <c r="T8" s="6"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="7">
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="F9">
@@ -2023,27 +2047,28 @@
         <f t="shared" ref="O9:O24" si="1">AVERAGE(M9:N9)</f>
         <v>-6.3249999999999987E-2</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="3">
         <f>K10-K9</f>
         <v>-458.82965360000162</v>
       </c>
-      <c r="Q9" t="s">
-        <v>38</v>
-      </c>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
+      <c r="Q9" s="8">
+        <f t="shared" ref="Q6:Q39" si="2">K10-(K9-460.15205)</f>
+        <v>1.3223963999989792</v>
+      </c>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="7">
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="F10">
@@ -2064,37 +2089,37 @@
       <c r="L10">
         <v>-25227.201683200001</v>
       </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s">
-        <v>28</v>
-      </c>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="8"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="P11" s="2"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="8"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>661</v>
       </c>
-      <c r="P12" s="2"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="8"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="7">
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="F13">
@@ -2109,7 +2134,7 @@
       <c r="I13">
         <v>6</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="3">
         <v>-24768.9690018</v>
       </c>
       <c r="L13">
@@ -2125,24 +2150,28 @@
         <f t="shared" si="1"/>
         <v>-6.93E-2</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="3">
         <f t="shared" si="0"/>
         <v>-458.38072390000161</v>
       </c>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
+      <c r="Q13" s="8">
+        <f t="shared" si="2"/>
+        <v>1.771326099998987</v>
+      </c>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>6</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="7">
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="F14">
@@ -2163,34 +2192,37 @@
       <c r="L14">
         <v>-25227.349728900001</v>
       </c>
-      <c r="P14" s="2"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="8"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="P15" s="2"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="8"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>881</v>
       </c>
-      <c r="P16" s="2"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="8"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>6</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="7">
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="F17">
@@ -2221,24 +2253,28 @@
         <f t="shared" si="1"/>
         <v>-6.3799999999999996E-2</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="3">
         <f t="shared" si="0"/>
         <v>-458.42419820000214</v>
       </c>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
+      <c r="Q17" s="8">
+        <f t="shared" si="2"/>
+        <v>1.7278517999984615</v>
+      </c>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="7">
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="F18">
@@ -2259,27 +2295,29 @@
       <c r="L18">
         <v>-25227.284586599999</v>
       </c>
-      <c r="P18" s="2"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="8"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="E19" s="6"/>
-      <c r="P19" s="2"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
+      <c r="E19" s="7"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="8"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="7">
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="F20">
@@ -2307,24 +2345,28 @@
         <f t="shared" si="1"/>
         <v>-6.770000000000001E-2</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P20" s="3">
         <f t="shared" si="0"/>
         <v>-458.43829080000069</v>
       </c>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
+      <c r="Q20" s="8">
+        <f t="shared" si="2"/>
+        <v>1.7137591999999131</v>
+      </c>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="7">
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="F21">
@@ -2342,34 +2384,37 @@
       <c r="K21">
         <v>-13000.0954435</v>
       </c>
-      <c r="P21" s="2"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="8"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="P22" s="2"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="8"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>10101</v>
       </c>
-      <c r="P23" s="2"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="8"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="7">
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="F24">
@@ -2400,24 +2445,28 @@
         <f t="shared" si="1"/>
         <v>-6.7250000000000004E-2</v>
       </c>
-      <c r="P24" s="2">
+      <c r="P24" s="3">
         <f t="shared" si="0"/>
         <v>-457.64924070000052</v>
       </c>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
+      <c r="Q24" s="8">
+        <f t="shared" si="2"/>
+        <v>2.5028093000000808</v>
+      </c>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="7">
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="F25">
@@ -2435,26 +2484,28 @@
       <c r="K25">
         <v>-25226.486600799999</v>
       </c>
-      <c r="P25" s="2"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="8"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="P26" s="2"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="8"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="7">
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="F27">
@@ -2479,27 +2530,31 @@
         <v>-0.33929999999999999</v>
       </c>
       <c r="O27">
-        <f t="shared" ref="O27:O64" si="2">AVERAGE(M27:N27)</f>
+        <f t="shared" ref="O27:O64" si="3">AVERAGE(M27:N27)</f>
         <v>-6.1699999999999991E-2</v>
       </c>
-      <c r="P27" s="2">
-        <f t="shared" ref="P27:P64" si="3">K28-K27</f>
+      <c r="P27" s="3">
+        <f t="shared" ref="P27:P64" si="4">K28-K27</f>
         <v>-458.42866569999933</v>
       </c>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
+      <c r="Q27" s="8">
+        <f t="shared" si="2"/>
+        <v>1.7233843000012712</v>
+      </c>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28">
         <v>5</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="7">
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="F28">
@@ -2517,34 +2572,37 @@
       <c r="K28">
         <v>-13000.0813186</v>
       </c>
-      <c r="P28" s="2"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="8"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="P29" s="2"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="8"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>12121</v>
       </c>
-      <c r="P30" s="2"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="8"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="7">
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="F31">
@@ -2569,27 +2627,31 @@
         <v>-0.33489999999999998</v>
       </c>
       <c r="O31">
+        <f t="shared" si="3"/>
+        <v>-5.8899999999999994E-2</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" si="4"/>
+        <v>-458.43399979999958</v>
+      </c>
+      <c r="Q31" s="8">
         <f t="shared" si="2"/>
-        <v>-5.8899999999999994E-2</v>
-      </c>
-      <c r="P31" s="2">
-        <f t="shared" si="3"/>
-        <v>-458.43399979999958</v>
-      </c>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
+        <v>1.7180502000010165</v>
+      </c>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="7">
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="F32">
@@ -2607,34 +2669,37 @@
       <c r="K32">
         <v>-13000.067227</v>
       </c>
-      <c r="P32" s="2"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="8"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="P33" s="2"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="8"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>16161</v>
       </c>
-      <c r="P34" s="2"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="8"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="7">
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="F35">
@@ -2659,27 +2724,31 @@
         <v>-0.12479999999999999</v>
       </c>
       <c r="O35">
+        <f t="shared" si="3"/>
+        <v>-6.7500000000000004E-2</v>
+      </c>
+      <c r="P35" s="3">
+        <f t="shared" si="4"/>
+        <v>-458.45270160000109</v>
+      </c>
+      <c r="Q35" s="8">
         <f t="shared" si="2"/>
-        <v>-6.7500000000000004E-2</v>
-      </c>
-      <c r="P35" s="2">
-        <f t="shared" si="3"/>
-        <v>-458.45270160000109</v>
-      </c>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
+        <v>1.6993483999995078</v>
+      </c>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="7">
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="F36">
@@ -2697,34 +2766,37 @@
       <c r="K36">
         <v>-13000.0832656</v>
       </c>
-      <c r="P36" s="2"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="8"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="P37" s="2"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="8"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>24241</v>
       </c>
-      <c r="P38" s="2"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="8"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="7">
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="F39">
@@ -2749,27 +2821,31 @@
         <v>-0.33019999999999999</v>
       </c>
       <c r="O39">
+        <f t="shared" si="3"/>
+        <v>-6.2699999999999992E-2</v>
+      </c>
+      <c r="P39" s="3">
+        <f t="shared" si="4"/>
+        <v>-458.44683120000082</v>
+      </c>
+      <c r="Q39" s="8">
         <f t="shared" si="2"/>
-        <v>-6.2699999999999992E-2</v>
-      </c>
-      <c r="P39" s="2">
-        <f t="shared" si="3"/>
-        <v>-458.44683120000082</v>
-      </c>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
+        <v>1.7052187999997841</v>
+      </c>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="7">
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="F40">
@@ -2787,53 +2863,53 @@
       <c r="K40">
         <v>-13000.0819097</v>
       </c>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>39</v>
-      </c>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>22</v>
       </c>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>331</v>
       </c>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
@@ -2842,7 +2918,7 @@
       <c r="C50" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="7">
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="F50">
@@ -2851,26 +2927,26 @@
       <c r="G50">
         <v>400</v>
       </c>
-      <c r="S50" s="5"/>
-      <c r="U50" s="5"/>
+      <c r="S50" s="6"/>
+      <c r="U50" s="6"/>
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>20</v>
       </c>
-      <c r="S51" s="5"/>
-      <c r="U51" s="5"/>
+      <c r="S51" s="6"/>
+      <c r="U51" s="6"/>
     </row>
     <row r="52" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="S52" s="5"/>
-      <c r="U52" s="5"/>
+      <c r="S52" s="6"/>
+      <c r="U52" s="6"/>
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>441</v>
       </c>
-      <c r="S53" s="5"/>
-      <c r="U53" s="5"/>
+      <c r="S53" s="6"/>
+      <c r="U53" s="6"/>
     </row>
     <row r="54" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
@@ -2879,7 +2955,7 @@
       <c r="C54" t="s">
         <v>23</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="7">
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="F54">
@@ -2888,166 +2964,166 @@
       <c r="G54">
         <v>400</v>
       </c>
-      <c r="S54" s="5"/>
-      <c r="U54" s="5"/>
+      <c r="S54" s="6"/>
+      <c r="U54" s="6"/>
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>20</v>
       </c>
-      <c r="S55" s="5"/>
-      <c r="U55" s="5"/>
+      <c r="S55" s="6"/>
+      <c r="U55" s="6"/>
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="S56" s="5"/>
-      <c r="U56" s="5"/>
+      <c r="S56" s="6"/>
+      <c r="U56" s="6"/>
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="S57" s="5"/>
-      <c r="U57" s="5"/>
+      <c r="S57" s="6"/>
+      <c r="U57" s="6"/>
     </row>
     <row r="58" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="S58" s="5"/>
-      <c r="U58" s="5"/>
+      <c r="S58" s="6"/>
+      <c r="U58" s="6"/>
     </row>
     <row r="59" spans="2:21" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="S59" s="5"/>
-      <c r="U59" s="5"/>
+      <c r="S59" s="6"/>
+      <c r="U59" s="6"/>
     </row>
     <row r="60" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="S60" s="5"/>
-      <c r="U60" s="5"/>
+      <c r="S60" s="6"/>
+      <c r="U60" s="6"/>
     </row>
     <row r="61" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="S61" s="5"/>
-      <c r="U61" s="5"/>
+      <c r="S61" s="6"/>
+      <c r="U61" s="6"/>
     </row>
     <row r="62" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="S62" s="5"/>
-      <c r="U62" s="5"/>
+      <c r="S62" s="6"/>
+      <c r="U62" s="6"/>
     </row>
     <row r="63" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="S63" s="5"/>
-      <c r="U63" s="5"/>
+      <c r="S63" s="6"/>
+      <c r="U63" s="6"/>
     </row>
     <row r="64" spans="2:21" x14ac:dyDescent="0.2">
       <c r="O64" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S64" s="5"/>
-      <c r="U64" s="5"/>
+      <c r="S64" s="6"/>
+      <c r="U64" s="6"/>
     </row>
     <row r="65" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S65" s="5"/>
-      <c r="U65" s="5"/>
+      <c r="S65" s="6"/>
+      <c r="U65" s="6"/>
     </row>
     <row r="66" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S66" s="5"/>
-      <c r="U66" s="5"/>
+      <c r="S66" s="6"/>
+      <c r="U66" s="6"/>
     </row>
     <row r="67" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S67" s="5"/>
-      <c r="U67" s="5"/>
+      <c r="S67" s="6"/>
+      <c r="U67" s="6"/>
     </row>
     <row r="68" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S68" s="5"/>
-      <c r="U68" s="5"/>
+      <c r="S68" s="6"/>
+      <c r="U68" s="6"/>
     </row>
     <row r="69" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S69" s="5"/>
-      <c r="U69" s="5"/>
+      <c r="S69" s="6"/>
+      <c r="U69" s="6"/>
     </row>
     <row r="70" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S70" s="5"/>
-      <c r="U70" s="5"/>
+      <c r="S70" s="6"/>
+      <c r="U70" s="6"/>
     </row>
     <row r="71" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S71" s="5"/>
-      <c r="U71" s="5"/>
+      <c r="S71" s="6"/>
+      <c r="U71" s="6"/>
     </row>
     <row r="72" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S72" s="5"/>
-      <c r="U72" s="5"/>
+      <c r="S72" s="6"/>
+      <c r="U72" s="6"/>
     </row>
     <row r="73" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S73" s="5"/>
-      <c r="U73" s="5"/>
+      <c r="S73" s="6"/>
+      <c r="U73" s="6"/>
     </row>
     <row r="74" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S74" s="5"/>
-      <c r="U74" s="5"/>
+      <c r="S74" s="6"/>
+      <c r="U74" s="6"/>
     </row>
     <row r="75" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S75" s="5"/>
-      <c r="U75" s="5"/>
+      <c r="S75" s="6"/>
+      <c r="U75" s="6"/>
     </row>
     <row r="76" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S76" s="5"/>
-      <c r="U76" s="5"/>
+      <c r="S76" s="6"/>
+      <c r="U76" s="6"/>
     </row>
     <row r="77" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S77" s="5"/>
-      <c r="U77" s="5"/>
+      <c r="S77" s="6"/>
+      <c r="U77" s="6"/>
     </row>
     <row r="78" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S78" s="5"/>
-      <c r="U78" s="5"/>
+      <c r="S78" s="6"/>
+      <c r="U78" s="6"/>
     </row>
     <row r="79" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S79" s="5"/>
-      <c r="U79" s="5"/>
+      <c r="S79" s="6"/>
+      <c r="U79" s="6"/>
     </row>
     <row r="80" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S80" s="5"/>
-      <c r="U80" s="5"/>
+      <c r="S80" s="6"/>
+      <c r="U80" s="6"/>
     </row>
     <row r="81" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S81" s="5"/>
-      <c r="U81" s="5"/>
+      <c r="S81" s="6"/>
+      <c r="U81" s="6"/>
     </row>
     <row r="82" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S82" s="5"/>
-      <c r="U82" s="5"/>
+      <c r="S82" s="6"/>
+      <c r="U82" s="6"/>
     </row>
     <row r="83" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S83" s="5"/>
-      <c r="U83" s="5"/>
+      <c r="S83" s="6"/>
+      <c r="U83" s="6"/>
     </row>
     <row r="84" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S84" s="5"/>
-      <c r="U84" s="5"/>
+      <c r="S84" s="6"/>
+      <c r="U84" s="6"/>
     </row>
     <row r="85" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S85" s="5"/>
-      <c r="U85" s="5"/>
+      <c r="S85" s="6"/>
+      <c r="U85" s="6"/>
     </row>
     <row r="86" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S86" s="5"/>
-      <c r="U86" s="5"/>
+      <c r="S86" s="6"/>
+      <c r="U86" s="6"/>
     </row>
     <row r="87" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S87" s="5"/>
-      <c r="U87" s="5"/>
+      <c r="S87" s="6"/>
+      <c r="U87" s="6"/>
     </row>
     <row r="88" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="U88" s="5"/>
+      <c r="U88" s="6"/>
     </row>
     <row r="89" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="U89" s="5"/>
+      <c r="U89" s="6"/>
     </row>
     <row r="90" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="U90" s="5"/>
+      <c r="U90" s="6"/>
     </row>
     <row r="91" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="U91" s="5"/>
+      <c r="U91" s="6"/>
     </row>
     <row r="92" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="U92" s="5"/>
+      <c r="U92" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3077,7 +3153,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
@@ -3089,25 +3165,25 @@
         <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s">
         <v>27</v>
       </c>
       <c r="L6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" t="s">
         <v>31</v>
       </c>
-      <c r="M6" t="s">
-        <v>32</v>
-      </c>
       <c r="N6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" t="s">
         <v>29</v>
-      </c>
-      <c r="O6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
@@ -3115,12 +3191,12 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="7">
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="F7">
@@ -3163,7 +3239,7 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="7">
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="F8">
@@ -3207,7 +3283,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
@@ -3219,25 +3295,25 @@
         <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s">
         <v>27</v>
       </c>
       <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
         <v>31</v>
       </c>
-      <c r="M5" t="s">
-        <v>32</v>
-      </c>
       <c r="N5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" t="s">
         <v>29</v>
-      </c>
-      <c r="O5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
@@ -3247,7 +3323,7 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="7">
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="F6">
@@ -3287,7 +3363,7 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="7">
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="F7">
@@ -3313,14 +3389,1070 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5D53CE-BD7A-6748-ADA6-17B85FC90549}">
-  <dimension ref="A1"/>
+  <dimension ref="C3:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="17" max="17" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>800</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="G6">
+        <v>0.01</v>
+      </c>
+      <c r="H6">
+        <v>16161</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>-12541.630563999999</v>
+      </c>
+      <c r="M6">
+        <v>-1.0200000000000001E-2</v>
+      </c>
+      <c r="N6">
+        <v>-0.12479999999999999</v>
+      </c>
+      <c r="O6">
+        <f>AVERAGE(M6:N6)</f>
+        <v>-6.7500000000000004E-2</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" ref="P6" si="0">L7-L6</f>
+        <v>-458.45270160000109</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>L7-(L6-460.15205)</f>
+        <v>1.6993483999995078</v>
+      </c>
+    </row>
+    <row r="7" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="G7">
+        <v>0.01</v>
+      </c>
+      <c r="H7">
+        <v>16161</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>-13000.0832656</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="F8" s="7"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>700</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="G10">
+        <v>0.01</v>
+      </c>
+      <c r="H10">
+        <v>16161</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>-12541.619888499999</v>
+      </c>
+      <c r="M10">
+        <v>-1.2500000000000001E-2</v>
+      </c>
+      <c r="N10">
+        <v>-0.1229</v>
+      </c>
+      <c r="O10">
+        <f t="shared" ref="O7:O14" si="1">AVERAGE(M10:N10)</f>
+        <v>-6.7699999999999996E-2</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" ref="P7:P14" si="2">L11-L10</f>
+        <v>-458.44806570000037</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" ref="Q7:Q14" si="3">L11-(L10-460.15205)</f>
+        <v>1.7039843000002293</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="G11">
+        <v>0.01</v>
+      </c>
+      <c r="H11">
+        <v>16161</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>-13000.0679542</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>600</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="G14">
+        <v>0.01</v>
+      </c>
+      <c r="H14">
+        <v>16161</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>-12541.577488999999</v>
+      </c>
+      <c r="M14">
+        <v>0.20469999999999999</v>
+      </c>
+      <c r="N14">
+        <v>-0.34039999999999998</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>-6.7849999999999994E-2</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="2"/>
+        <v>-458.44231589999981</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7097341000007873</v>
+      </c>
+    </row>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="G15">
+        <v>0.01</v>
+      </c>
+      <c r="H15">
+        <v>16161</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>-13000.019804899999</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="8"/>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="F16" s="7"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="8"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>500</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="G18">
+        <v>0.01</v>
+      </c>
+      <c r="H18">
+        <v>16161</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>-12541.5315753</v>
+      </c>
+      <c r="M18">
+        <v>0.16830000000000001</v>
+      </c>
+      <c r="N18">
+        <v>-0.30309999999999998</v>
+      </c>
+      <c r="O18">
+        <f>AVERAGE(M18:N18)</f>
+        <v>-6.7399999999999988E-2</v>
+      </c>
+      <c r="P18" s="3">
+        <f t="shared" ref="P18:P19" si="4">L19-L18</f>
+        <v>-458.43842530000074</v>
+      </c>
+      <c r="Q18" s="2">
+        <f>L19-(L18-460.15205)</f>
+        <v>1.7136246999998548</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="G19">
+        <v>0.01</v>
+      </c>
+      <c r="H19">
+        <v>16161</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>-12999.9700006</v>
+      </c>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>400</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" t="s">
+        <v>30</v>
+      </c>
+      <c r="N21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="G22">
+        <v>0.01</v>
+      </c>
+      <c r="H22">
+        <v>16161</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>-12539.3333043</v>
+      </c>
+      <c r="M22">
+        <v>0.21859999999999999</v>
+      </c>
+      <c r="N22">
+        <v>-0.3599</v>
+      </c>
+      <c r="O22">
+        <f>AVERAGE(M22:N22)</f>
+        <v>-7.0650000000000004E-2</v>
+      </c>
+      <c r="P22" s="3">
+        <f t="shared" ref="P22:P23" si="5">L23-L22</f>
+        <v>-458.28810820000035</v>
+      </c>
+      <c r="Q22" s="2">
+        <f>L23-(L22-460.15205)</f>
+        <v>1.8639418000002479</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="G23">
+        <v>0.01</v>
+      </c>
+      <c r="H23">
+        <v>16161</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>-12997.621412500001</v>
+      </c>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>300</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="G26">
+        <v>0.01</v>
+      </c>
+      <c r="H26">
+        <v>16161</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>-12505.918188899999</v>
+      </c>
+      <c r="M26">
+        <v>-0.12809999999999999</v>
+      </c>
+      <c r="N26">
+        <v>-4.7699999999999999E-2</v>
+      </c>
+      <c r="O26">
+        <f>AVERAGE(M26:N26)</f>
+        <v>-8.7899999999999992E-2</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" ref="P26:P27" si="6">L27-L26</f>
+        <v>-456.8089899000006</v>
+      </c>
+      <c r="Q26" s="2">
+        <f>L27-(L26-460.15205)</f>
+        <v>3.3430601000000024</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="G27">
+        <v>0.01</v>
+      </c>
+      <c r="H27">
+        <v>16161</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>-12962.7271788</v>
+      </c>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC128D54-F998-7145-AF87-4CAEE58A6435}">
+  <dimension ref="B3:Q14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F4">
+        <v>0.01</v>
+      </c>
+      <c r="G4">
+        <v>881</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>700</v>
+      </c>
+      <c r="L4">
+        <v>-50166.493196900003</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" ref="P4" si="0">L5-L4</f>
+        <v>-458.7277202999976</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>L5-(L4-460.15205)</f>
+        <v>1.4243296999993618</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F5">
+        <v>0.01</v>
+      </c>
+      <c r="G5">
+        <v>881</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>700</v>
+      </c>
+      <c r="L5">
+        <v>-50625.2209172</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F8">
+        <v>0.01</v>
+      </c>
+      <c r="G8">
+        <v>441</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>700</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" ref="P8" si="1">L9-L8</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <f>L9-(L8-460.15205)</f>
+        <v>460.15204999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F9">
+        <v>0.01</v>
+      </c>
+      <c r="G9">
+        <v>441</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>700</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F13">
+        <v>0.01</v>
+      </c>
+      <c r="G13">
+        <v>881</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>700</v>
+      </c>
+      <c r="L13">
+        <v>-50166.493196900003</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" ref="P13" si="2">L14-L13</f>
+        <v>50166.493196900003</v>
+      </c>
+      <c r="Q13" s="2">
+        <f>L14-(L13-460.15205)</f>
+        <v>50626.6452469</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F14">
+        <v>0.01</v>
+      </c>
+      <c r="G14">
+        <v>881</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>700</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Supported Graphene Analysis.xlsx
+++ b/data/Supported Graphene Analysis.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinkrempl/Documents/TRI ORR/Data/DFT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF91AC9-A8ED-8041-992E-8A2DDD087076}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D89C256-2214-AD43-BA69-86430519DFAF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{4048BA77-A555-4A4B-8B58-A70623B0558E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{4048BA77-A555-4A4B-8B58-A70623B0558E}"/>
   </bookViews>
   <sheets>
     <sheet name="Lattice matching" sheetId="1" r:id="rId1"/>
-    <sheet name="kpts" sheetId="2" r:id="rId2"/>
-    <sheet name="vacuum" sheetId="4" r:id="rId3"/>
-    <sheet name="layers" sheetId="5" r:id="rId4"/>
-    <sheet name="pwcutoff " sheetId="3" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="surfaces" sheetId="7" r:id="rId2"/>
+    <sheet name="kpts" sheetId="2" r:id="rId3"/>
+    <sheet name="vacuum" sheetId="4" r:id="rId4"/>
+    <sheet name="layers" sheetId="5" r:id="rId5"/>
+    <sheet name="pwcutoff " sheetId="3" r:id="rId6"/>
+    <sheet name="coverage" sheetId="6" r:id="rId7"/>
+    <sheet name="other" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="53">
   <si>
     <t>001</t>
   </si>
@@ -164,10 +166,31 @@
     <t>pw cutoff</t>
   </si>
   <si>
-    <t>4x4</t>
-  </si>
-  <si>
     <t>2x2 trifold ontop</t>
+  </si>
+  <si>
+    <t>hcp11m20</t>
+  </si>
+  <si>
+    <t>magmoms</t>
+  </si>
+  <si>
+    <t>ooh</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>3x3 trifold ontop</t>
+  </si>
+  <si>
+    <t>Mo bcc 111</t>
+  </si>
+  <si>
+    <t>Co hcp11m20</t>
+  </si>
+  <si>
+    <t>4x4 trifold ontop</t>
   </si>
 </sst>
 </file>
@@ -542,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F803174-99F6-A54F-9056-59F666BF7275}">
-  <dimension ref="B2:L47"/>
+  <dimension ref="B2:N47"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -561,7 +584,7 @@
     <col min="12" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -596,12 +619,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,7 +656,7 @@
         <v>59.999999999999901</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>100</v>
       </c>
@@ -665,7 +688,7 @@
         <v>0.29264690570200003</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>101</v>
       </c>
@@ -696,8 +719,12 @@
       <c r="K7" s="5">
         <v>5.8201933957306502E-2</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <f>9*H5</f>
+        <v>47.394076187765435</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>110</v>
       </c>
@@ -728,8 +755,16 @@
       <c r="K8" s="5">
         <v>1.4210854715202001E-14</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <f>F5*16</f>
+        <v>39.8418992</v>
+      </c>
+      <c r="N8">
+        <f>M8/G33</f>
+        <v>4.4562293864476237</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>210</v>
       </c>
@@ -761,7 +796,7 @@
         <v>0.36505132780217697</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -772,7 +807,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>100</v>
       </c>
@@ -804,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>110</v>
       </c>
@@ -836,7 +871,7 @@
         <v>2.8421709430404001E-14</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>111</v>
       </c>
@@ -868,7 +903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>221</v>
       </c>
@@ -900,7 +935,7 @@
         <v>1.4210854715202001E-14</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>322</v>
       </c>
@@ -932,7 +967,7 @@
         <v>2.25564187795868E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>332</v>
       </c>
@@ -1842,11 +1877,137 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA35E21-EE8E-B845-B52D-629E949D26F0}">
+  <dimension ref="B3:R5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="F4">
+        <v>0.01</v>
+      </c>
+      <c r="G4">
+        <v>400</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>931</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="e">
+        <f>AVERAGE(O4:P4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R4" s="3">
+        <f t="shared" ref="R4:R5" si="0">M5-M4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="F5">
+        <v>0.01</v>
+      </c>
+      <c r="G5">
+        <v>800</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>931</v>
+      </c>
+      <c r="R5" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA11F605-3F2C-8949-A07B-2C4748B8A05E}">
   <dimension ref="B2:U92"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3133,7 +3294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FF3DB4-F55F-0B49-AD2B-5509731BE8F4}">
   <dimension ref="B4:O8"/>
   <sheetViews>
@@ -3263,7 +3424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90C5FF2-D8D0-4349-80EC-68F7DB260FDB}">
   <dimension ref="B3:O7"/>
   <sheetViews>
@@ -3387,12 +3548,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5D53CE-BD7A-6748-ADA6-17B85FC90549}">
   <dimension ref="C3:Q27"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4112,12 +4273,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC128D54-F998-7145-AF87-4CAEE58A6435}">
-  <dimension ref="B3:Q14"/>
+  <dimension ref="B3:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4171,7 +4332,7 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -4195,15 +4356,15 @@
         <v>700</v>
       </c>
       <c r="L4">
-        <v>-50166.493196900003</v>
+        <v>-50166.479172200001</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" ref="P4" si="0">L5-L4</f>
-        <v>-458.7277202999976</v>
+        <v>-458.74174499999936</v>
       </c>
       <c r="Q4" s="2">
         <f>L5-(L4-460.15205)</f>
-        <v>1.4243296999993618</v>
+        <v>1.4103049999976065</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.2">
@@ -4242,7 +4403,7 @@
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
@@ -4285,6 +4446,9 @@
       <c r="B8" t="s">
         <v>19</v>
       </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
       <c r="D8">
         <v>1</v>
       </c>
@@ -4295,7 +4459,7 @@
         <v>0.01</v>
       </c>
       <c r="G8">
-        <v>441</v>
+        <v>551</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -4306,19 +4470,25 @@
       <c r="J8">
         <v>700</v>
       </c>
+      <c r="L8">
+        <v>-112873.85752200001</v>
+      </c>
       <c r="P8" s="3">
         <f t="shared" ref="P8" si="1">L9-L8</f>
-        <v>0</v>
+        <v>-459.49735199999122</v>
       </c>
       <c r="Q8" s="2">
         <f>L9-(L8-460.15205)</f>
-        <v>460.15204999999997</v>
+        <v>0.65469800001301337</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>20</v>
       </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
       <c r="D9">
         <v>1</v>
       </c>
@@ -4329,7 +4499,7 @@
         <v>0.01</v>
       </c>
       <c r="G9">
-        <v>441</v>
+        <v>551</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -4340,12 +4510,15 @@
       <c r="J9">
         <v>700</v>
       </c>
+      <c r="L9">
+        <v>-113333.354874</v>
+      </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="2"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -4391,6 +4564,9 @@
       <c r="B13" t="s">
         <v>19</v>
       </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
       <c r="D13">
         <v>3</v>
       </c>
@@ -4413,21 +4589,20 @@
         <v>700</v>
       </c>
       <c r="L13">
-        <v>-50166.493196900003</v>
+        <v>-50166.479172200001</v>
       </c>
       <c r="P13" s="3">
         <f t="shared" ref="P13" si="2">L14-L13</f>
-        <v>50166.493196900003</v>
-      </c>
-      <c r="Q13" s="2">
-        <f>L14-(L13-460.15205)</f>
-        <v>50626.6452469</v>
+        <v>-459.13675579999835</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>20</v>
       </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
       <c r="D14">
         <v>3</v>
       </c>
@@ -4449,8 +4624,223 @@
       <c r="J14">
         <v>700</v>
       </c>
+      <c r="L14">
+        <v>-50625.615927999999</v>
+      </c>
       <c r="P14" s="3"/>
-      <c r="Q14" s="2"/>
+      <c r="Q14" s="2">
+        <f>L14-(L13-460.15205)</f>
+        <v>1.0152941999986069</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F15">
+        <v>0.01</v>
+      </c>
+      <c r="G15">
+        <v>881</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>700</v>
+      </c>
+      <c r="L15">
+        <v>-51066.2000568</v>
+      </c>
+      <c r="Q15" s="2">
+        <f>L15-(L13-2*443.674358207704-16.47769)</f>
+        <v>4.1055218154069735</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F16">
+        <v>0.01</v>
+      </c>
+      <c r="G16">
+        <v>881</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>700</v>
+      </c>
+      <c r="L16">
+        <v>-50607.445810999998</v>
+      </c>
+      <c r="Q16" s="2">
+        <f>L16-(L13-443.674358207704)</f>
+        <v>2.7077194077064632</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F20">
+        <v>0.01</v>
+      </c>
+      <c r="G20">
+        <v>551</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>700</v>
+      </c>
+      <c r="P20" s="3">
+        <f>L21-L20</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <f>L21-(L20-460.15205)</f>
+        <v>460.15204999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F21">
+        <v>0.01</v>
+      </c>
+      <c r="G21">
+        <v>551</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>700</v>
+      </c>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578A1A54-CAA0-D146-B899-917B401DB322}">
+  <dimension ref="B4:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Supported Graphene Analysis.xlsx
+++ b/data/Supported Graphene Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinkrempl/Documents/TRI ORR/Data/DFT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D89C256-2214-AD43-BA69-86430519DFAF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0476381-EA2E-4F4F-B474-D6336C89D1B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{4048BA77-A555-4A4B-8B58-A70623B0558E}"/>
+    <workbookView xWindow="920" yWindow="580" windowWidth="28040" windowHeight="16460" firstSheet="1" activeTab="10" xr2:uid="{4048BA77-A555-4A4B-8B58-A70623B0558E}"/>
   </bookViews>
   <sheets>
     <sheet name="Lattice matching" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,11 @@
     <sheet name="layers" sheetId="5" r:id="rId5"/>
     <sheet name="pwcutoff " sheetId="3" r:id="rId6"/>
     <sheet name="coverage" sheetId="6" r:id="rId7"/>
-    <sheet name="other" sheetId="8" r:id="rId8"/>
+    <sheet name="strain" sheetId="8" r:id="rId8"/>
+    <sheet name="low kpts coverage" sheetId="9" r:id="rId9"/>
+    <sheet name="bare graphene coverage" sheetId="10" r:id="rId10"/>
+    <sheet name="ads study" sheetId="11" r:id="rId11"/>
+    <sheet name="C ads study" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="92">
   <si>
     <t>001</t>
   </si>
@@ -133,6 +137,9 @@
     <t>fin</t>
   </si>
   <si>
+    <t>fail</t>
+  </si>
+  <si>
     <t xml:space="preserve">run </t>
   </si>
   <si>
@@ -166,6 +173,9 @@
     <t>pw cutoff</t>
   </si>
   <si>
+    <t>4x4</t>
+  </si>
+  <si>
     <t>2x2 trifold ontop</t>
   </si>
   <si>
@@ -181,16 +191,127 @@
     <t>o</t>
   </si>
   <si>
-    <t>3x3 trifold ontop</t>
-  </si>
-  <si>
-    <t>Mo bcc 111</t>
-  </si>
-  <si>
-    <t>Co hcp11m20</t>
+    <t>3x3</t>
   </si>
   <si>
     <t>4x4 trifold ontop</t>
+  </si>
+  <si>
+    <t>3x3 trifold ontop sym</t>
+  </si>
+  <si>
+    <t>2x2 trifold ontop sym</t>
+  </si>
+  <si>
+    <t>1x1 trifold ontop sym</t>
+  </si>
+  <si>
+    <t>100bulk</t>
+  </si>
+  <si>
+    <t>75bulk</t>
+  </si>
+  <si>
+    <t>50bulk</t>
+  </si>
+  <si>
+    <t>25bulk</t>
+  </si>
+  <si>
+    <t>0bulk</t>
+  </si>
+  <si>
+    <t>dG ads norm</t>
+  </si>
+  <si>
+    <t>O-O dist</t>
+  </si>
+  <si>
+    <t>1x1</t>
+  </si>
+  <si>
+    <t>desorbed</t>
+  </si>
+  <si>
+    <t>Trifold ontop</t>
+  </si>
+  <si>
+    <t>2 w/o spin</t>
+  </si>
+  <si>
+    <t>oh ontop</t>
+  </si>
+  <si>
+    <t>wo sping</t>
+  </si>
+  <si>
+    <t>wo spin</t>
+  </si>
+  <si>
+    <t>oh_ontop</t>
+  </si>
+  <si>
+    <t>fcc</t>
+  </si>
+  <si>
+    <t>ontop trifold</t>
+  </si>
+  <si>
+    <t>elec e_out</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>dE_ads</t>
+  </si>
+  <si>
+    <t>ontop ontop</t>
+  </si>
+  <si>
+    <t>bridge</t>
+  </si>
+  <si>
+    <t>o ontop</t>
+  </si>
+  <si>
+    <t>graph</t>
+  </si>
+  <si>
+    <t>ontop</t>
+  </si>
+  <si>
+    <t>trifold fcc</t>
+  </si>
+  <si>
+    <t>C ads</t>
+  </si>
+  <si>
+    <t>trifold hcp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fin </t>
+  </si>
+  <si>
+    <t>hcp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Co </t>
+  </si>
+  <si>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>Ni</t>
+  </si>
+  <si>
+    <t>Co</t>
+  </si>
+  <si>
+    <t>Gr</t>
+  </si>
+  <si>
+    <t>Gr@Fe</t>
   </si>
 </sst>
 </file>
@@ -201,7 +322,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.00000000000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -212,6 +333,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -234,11 +363,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -250,8 +380,10 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -266,6 +398,1785 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(kpts!$R$20,kpts!$R$27,kpts!$R$31,kpts!$R$35,kpts!$R$39)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0083895392955399E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0652885132095301E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5247821577113863E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.4426080689920965E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-79DC-874A-A6DF-38C924D33CFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="648870927"/>
+        <c:axId val="671497679"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="648870927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="671497679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="671497679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="648870927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('pwcutoff '!$R$6,'pwcutoff '!$R$10,'pwcutoff '!$R$14,'pwcutoff '!$R$18,'pwcutoff '!$R$22)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7280456442732941E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1115778267025658E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4010436002123507E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6856771690130017E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1D69-2C45-8A57-39BC44F5EACA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="648638735"/>
+        <c:axId val="648640415"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="648638735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="648640415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="648640415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="648638735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5D1DAB2-9D0F-FA49-881D-7A0214842B91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2DA5561-6FDA-034D-AEE3-3B727B75453C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -568,7 +2479,7 @@
   <dimension ref="B2:N47"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -756,12 +2667,12 @@
         <v>1.4210854715202001E-14</v>
       </c>
       <c r="M8">
-        <f>F5*16</f>
-        <v>39.8418992</v>
+        <f>F5*8</f>
+        <v>19.9209496</v>
       </c>
       <c r="N8">
-        <f>M8/G33</f>
-        <v>4.4562293864476237</v>
+        <f>M8/(3*F5)</f>
+        <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
@@ -1876,6 +3787,1401 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8A57FA-9409-2E45-BB66-0E3E2EFE8AB7}">
+  <dimension ref="C3:R17"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="G4">
+        <v>0.01</v>
+      </c>
+      <c r="H4">
+        <v>881</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>500</v>
+      </c>
+      <c r="M4">
+        <v>-315.88755567499999</v>
+      </c>
+      <c r="Q4" s="3">
+        <f t="shared" ref="Q4" si="0">M5-M4</f>
+        <v>-457.46765622599997</v>
+      </c>
+    </row>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="G5">
+        <v>0.01</v>
+      </c>
+      <c r="H5">
+        <v>881</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>500</v>
+      </c>
+      <c r="L5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5">
+        <v>-773.35521190099996</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="2">
+        <f>M5-(M4-460.15205)</f>
+        <v>2.6843937740000001</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="G8">
+        <v>0.01</v>
+      </c>
+      <c r="H8">
+        <v>441</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>500</v>
+      </c>
+      <c r="M8">
+        <v>-1263.55022229</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>M9-M8</f>
+        <v>-457.74715388999994</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="G9">
+        <v>0.01</v>
+      </c>
+      <c r="H9">
+        <v>441</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>500</v>
+      </c>
+      <c r="M9">
+        <v>-1721.2973761799999</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="2">
+        <f>M9-(M8-460.15205)</f>
+        <v>2.4048961099999815</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>29</v>
+      </c>
+      <c r="R11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="G12">
+        <v>0.01</v>
+      </c>
+      <c r="H12">
+        <v>331</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>500</v>
+      </c>
+      <c r="M12">
+        <v>-2842.8534066299999</v>
+      </c>
+      <c r="Q12" s="3">
+        <f>M13-M12</f>
+        <v>-457.85288596000009</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="G13">
+        <v>0.01</v>
+      </c>
+      <c r="H13">
+        <v>331</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>500</v>
+      </c>
+      <c r="M13">
+        <v>-3300.70629259</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="2">
+        <f>M13-(M12-460.15205)</f>
+        <v>2.2991640400000506</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N15" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>29</v>
+      </c>
+      <c r="R15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="G16">
+        <v>0.01</v>
+      </c>
+      <c r="H16">
+        <v>221</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>500</v>
+      </c>
+      <c r="M16">
+        <v>-5054.2008897100004</v>
+      </c>
+      <c r="Q16" s="3">
+        <f>M17-M16</f>
+        <v>-457.76455222999994</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="G17">
+        <v>0.01</v>
+      </c>
+      <c r="H17">
+        <v>221</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>500</v>
+      </c>
+      <c r="M17">
+        <v>-5511.9654419400003</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="2">
+        <f>M17-(M16-460.15205)</f>
+        <v>2.3874977699997544</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EA5F66-9670-6940-835B-FF3616D832FA}">
+  <dimension ref="A1:Z36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T3" t="s">
+        <v>71</v>
+      </c>
+      <c r="W3" t="s">
+        <v>73</v>
+      </c>
+      <c r="X3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>-112872.91558</v>
+      </c>
+      <c r="G4">
+        <f>E4-('C ads study'!E5+'C ads study'!E4)</f>
+        <v>-0.98950457999308128</v>
+      </c>
+      <c r="H4">
+        <f>G4/18</f>
+        <v>-5.4972476666282293E-2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4">
+        <f>N4-('C ads study'!N5+'C ads study'!N4)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f>P4/18</f>
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4">
+        <v>-129364.690756</v>
+      </c>
+      <c r="Y4">
+        <f>W4-('C ads study'!E5+'C ads study'!E14)</f>
+        <v>0.17062642000382766</v>
+      </c>
+      <c r="Z4">
+        <f>Y4/18</f>
+        <v>9.479245555768203E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>-113314.388186</v>
+      </c>
+      <c r="G6">
+        <f>E6-($E$4-443.674358207704)</f>
+        <v>2.2017522077076137</v>
+      </c>
+      <c r="M6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6">
+        <f>N6-($E$4-443.674358207704)</f>
+        <v>113316.5899382077</v>
+      </c>
+      <c r="S6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" t="s">
+        <v>50</v>
+      </c>
+      <c r="W6">
+        <v>-129806.240227</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" ref="Y6:Y10" si="0">W6-($W$4-443.674358207704)</f>
+        <v>2.1248872076976113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>-113332.419314</v>
+      </c>
+      <c r="G7">
+        <f>E7-($E$4-460.15205)</f>
+        <v>0.64831600000616163</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7">
+        <f>N7-($E$4-460.15205)</f>
+        <v>113333.06763000001</v>
+      </c>
+      <c r="V7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>129808.3651142077</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8">
+        <v>-113772.98913099999</v>
+      </c>
+      <c r="G8">
+        <f>E8-($E$4-2*443.674358207704-16.47769)</f>
+        <v>3.7528554154123412</v>
+      </c>
+      <c r="H8">
+        <f>G8-G7</f>
+        <v>3.1045394154061796</v>
+      </c>
+      <c r="M8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8">
+        <f>N8-($E$4-2*443.674358207704-16.47769)</f>
+        <v>113776.74198641541</v>
+      </c>
+      <c r="V8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>129808.3651142077</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" t="s">
+        <v>76</v>
+      </c>
+      <c r="U10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>-113313.936959</v>
+      </c>
+      <c r="G11">
+        <f>E11-($E$4-443.674358207704)</f>
+        <v>2.6529792077053571</v>
+      </c>
+      <c r="M11" t="s">
+        <v>50</v>
+      </c>
+      <c r="P11">
+        <f>N11-($E$4-443.674358207704)</f>
+        <v>113316.5899382077</v>
+      </c>
+      <c r="S11" t="s">
+        <v>32</v>
+      </c>
+      <c r="V11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W11">
+        <v>-129805.88957499999</v>
+      </c>
+      <c r="Y11">
+        <f>W11-($W$4-443.674358207704)</f>
+        <v>2.4755392077058787</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>-113331.767674</v>
+      </c>
+      <c r="G12">
+        <f>E12-($E$4-460.15205)</f>
+        <v>1.2999560000025667</v>
+      </c>
+      <c r="M12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12">
+        <f>N12-($E$4-460.15205)</f>
+        <v>113333.06763000001</v>
+      </c>
+      <c r="V12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" ref="Y12:Y18" si="1">W12-($W$4-443.674358207704)</f>
+        <v>129808.3651142077</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13">
+        <v>-113772.324542</v>
+      </c>
+      <c r="G13">
+        <f>E13-($E$4-2*443.674358207704-16.47769)</f>
+        <v>4.4174444154050434</v>
+      </c>
+      <c r="H13">
+        <f>G13-G12</f>
+        <v>3.1174884154024767</v>
+      </c>
+      <c r="M13" t="s">
+        <v>49</v>
+      </c>
+      <c r="P13">
+        <f>N13-($E$4-2*443.674358207704-16.47769)</f>
+        <v>113776.74198641541</v>
+      </c>
+      <c r="V13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="1"/>
+        <v>129808.3651142077</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" t="s">
+        <v>77</v>
+      </c>
+      <c r="U15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>-113314.04808199999</v>
+      </c>
+      <c r="G16">
+        <f>E16-($E$4-443.674358207704)</f>
+        <v>2.5418562077102251</v>
+      </c>
+      <c r="M16" t="s">
+        <v>50</v>
+      </c>
+      <c r="P16">
+        <f>N16-($E$4-443.674358207704)</f>
+        <v>113316.5899382077</v>
+      </c>
+      <c r="V16" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="1"/>
+        <v>129808.3651142077</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <f>E17-($E$4-460.15205)</f>
+        <v>113333.06763000001</v>
+      </c>
+      <c r="M17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17">
+        <f>N17-($E$4-460.15205)</f>
+        <v>113333.06763000001</v>
+      </c>
+      <c r="V17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="1"/>
+        <v>129808.3651142077</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18">
+        <f>E18-($E$4-2*443.674358207704-16.47769)</f>
+        <v>113776.74198641541</v>
+      </c>
+      <c r="M18" t="s">
+        <v>49</v>
+      </c>
+      <c r="P18">
+        <f>N18-($E$4-2*443.674358207704-16.47769)</f>
+        <v>113776.74198641541</v>
+      </c>
+      <c r="V18" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="1"/>
+        <v>129808.3651142077</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" t="s">
+        <v>85</v>
+      </c>
+      <c r="N21" t="s">
+        <v>73</v>
+      </c>
+      <c r="O21" t="s">
+        <v>74</v>
+      </c>
+      <c r="P21" t="s">
+        <v>75</v>
+      </c>
+      <c r="T21" t="s">
+        <v>85</v>
+      </c>
+      <c r="W21" t="s">
+        <v>73</v>
+      </c>
+      <c r="X21" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <v>-112872.917642</v>
+      </c>
+      <c r="G22">
+        <f>E22-('C ads study'!E5+'C ads study'!E4)</f>
+        <v>-0.99156657999265008</v>
+      </c>
+      <c r="H22">
+        <f>G22/18</f>
+        <v>-5.5087032221813895E-2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22">
+        <f>N22-('C ads study'!N5+'C ads study'!N4)</f>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f>P22/18</f>
+        <v>0</v>
+      </c>
+      <c r="U22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y22">
+        <f>W22-('C ads study'!W5+'C ads study'!W4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="L23" t="s">
+        <v>72</v>
+      </c>
+      <c r="U23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>-113314.459776</v>
+      </c>
+      <c r="G24">
+        <f>E24-($E$22-443.674358207704)</f>
+        <v>2.1322242077003466</v>
+      </c>
+      <c r="M24" t="s">
+        <v>50</v>
+      </c>
+      <c r="P24">
+        <f>N24-($E$4-443.674358207704)</f>
+        <v>113316.5899382077</v>
+      </c>
+      <c r="V24" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y24">
+        <f>W24-($E$4-443.674358207704)</f>
+        <v>113316.5899382077</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25:G36" si="2">E25-($E$22-443.674358207704)</f>
+        <v>113316.5920002077</v>
+      </c>
+      <c r="M25" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25">
+        <f>N25-($E$4-460.15205)</f>
+        <v>113333.06763000001</v>
+      </c>
+      <c r="V25" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y25">
+        <f>W25-($E$4-460.15205)</f>
+        <v>113333.06763000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>113316.5920002077</v>
+      </c>
+      <c r="M26" t="s">
+        <v>49</v>
+      </c>
+      <c r="P26">
+        <f>N26-($E$4-2*443.674358207704-16.47769)</f>
+        <v>113776.74198641541</v>
+      </c>
+      <c r="V26" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y26">
+        <f>W26-($E$4-2*443.674358207704-16.47769)</f>
+        <v>113776.74198641541</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="L28" t="s">
+        <v>76</v>
+      </c>
+      <c r="U28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29">
+        <v>-113313.970993</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>2.6210072077083169</v>
+      </c>
+      <c r="M29" t="s">
+        <v>50</v>
+      </c>
+      <c r="P29">
+        <f>N29-($E$4-443.674358207704)</f>
+        <v>113316.5899382077</v>
+      </c>
+      <c r="V29" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y29">
+        <f>W29-($E$4-443.674358207704)</f>
+        <v>113316.5899382077</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>113316.5920002077</v>
+      </c>
+      <c r="M30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30">
+        <f>N30-($E$4-460.15205)</f>
+        <v>113333.06763000001</v>
+      </c>
+      <c r="V30" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y30">
+        <f>W30-($E$4-460.15205)</f>
+        <v>113333.06763000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>113316.5920002077</v>
+      </c>
+      <c r="M31" t="s">
+        <v>49</v>
+      </c>
+      <c r="P31">
+        <f>N31-($E$4-2*443.674358207704-16.47769)</f>
+        <v>113776.74198641541</v>
+      </c>
+      <c r="V31" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y31">
+        <f>W31-($E$4-2*443.674358207704-16.47769)</f>
+        <v>113776.74198641541</v>
+      </c>
+    </row>
+    <row r="33" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="L33" t="s">
+        <v>77</v>
+      </c>
+      <c r="U33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>113316.5920002077</v>
+      </c>
+      <c r="M34" t="s">
+        <v>50</v>
+      </c>
+      <c r="P34">
+        <f>N34-($E$4-443.674358207704)</f>
+        <v>113316.5899382077</v>
+      </c>
+      <c r="V34" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y34">
+        <f>W34-($E$4-443.674358207704)</f>
+        <v>113316.5899382077</v>
+      </c>
+    </row>
+    <row r="35" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>113316.5920002077</v>
+      </c>
+      <c r="M35" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35">
+        <f>N35-($E$4-460.15205)</f>
+        <v>113333.06763000001</v>
+      </c>
+      <c r="V35" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y35">
+        <f>W35-($E$4-460.15205)</f>
+        <v>113333.06763000001</v>
+      </c>
+    </row>
+    <row r="36" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>113316.5920002077</v>
+      </c>
+      <c r="M36" t="s">
+        <v>49</v>
+      </c>
+      <c r="P36">
+        <f>N36-($E$4-2*443.674358207704-16.47769)</f>
+        <v>113776.74198641541</v>
+      </c>
+      <c r="V36" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y36">
+        <f>W36-($E$4-2*443.674358207704-16.47769)</f>
+        <v>113776.74198641541</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD56D7E1-2821-7A4A-A1A4-4819BD222B78}">
+  <dimension ref="C3:M33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>-110028.59630200001</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5">
+        <v>-2843.32977342</v>
+      </c>
+      <c r="M5">
+        <v>-57495.468575600004</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6">
+        <v>-57497.453802299999</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7">
+        <v>-110185.816362</v>
+      </c>
+      <c r="F7">
+        <f>E7-(E4+$E$5/18)</f>
+        <v>0.74270519000128843</v>
+      </c>
+      <c r="M7">
+        <v>-57497.506988000001</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8">
+        <v>-110177.430891</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>-126521.531609</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16">
+        <v>-126678.08617</v>
+      </c>
+      <c r="F16">
+        <f>E16-(E14+$E$5/18)</f>
+        <v>1.4082041899964679</v>
+      </c>
+    </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29">
+        <v>-32667.280473700001</v>
+      </c>
+    </row>
+    <row r="30" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <v>-33123.665595099999</v>
+      </c>
+      <c r="F30">
+        <f>E30-($E$29-460.15205)</f>
+        <v>3.7669286000018474</v>
+      </c>
+      <c r="L30" t="s">
+        <v>90</v>
+      </c>
+      <c r="M30">
+        <v>-947.90107699999999</v>
+      </c>
+    </row>
+    <row r="31" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="L31" t="s">
+        <v>87</v>
+      </c>
+      <c r="M31">
+        <v>-30774.394854999999</v>
+      </c>
+    </row>
+    <row r="32" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="L32" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="M32">
+        <v>-31722.582299999998</v>
+      </c>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M33">
+        <f>(M32-(M31+M30))/6</f>
+        <v>-4.7728000000158012E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L32" r:id="rId1" xr:uid="{BAC81D8C-61A4-4F4B-B665-94BA251A79F1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA35E21-EE8E-B845-B52D-629E949D26F0}">
   <dimension ref="B3:R5"/>
@@ -1888,10 +5194,10 @@
   <sheetData>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
@@ -1903,22 +5209,22 @@
         <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
         <v>40</v>
       </c>
-      <c r="J3" t="s">
-        <v>39</v>
-      </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
         <v>36</v>
-      </c>
-      <c r="N3" t="s">
-        <v>35</v>
       </c>
       <c r="O3" t="s">
         <v>30</v>
@@ -2006,8 +5312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA11F605-3F2C-8949-A07B-2C4748B8A05E}">
   <dimension ref="B2:U92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:P6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2030,7 +5336,7 @@
         <v>331</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
@@ -2042,16 +5348,16 @@
         <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" t="s">
         <v>36</v>
-      </c>
-      <c r="L4" t="s">
-        <v>35</v>
       </c>
       <c r="M4" t="s">
         <v>30</v>
@@ -2066,7 +5372,7 @@
         <v>29</v>
       </c>
       <c r="Q4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.2">
@@ -2118,6 +5424,10 @@
         <f>K6-(K5-460.15205)</f>
         <v>1.8008225000012317</v>
       </c>
+      <c r="R5">
+        <f>(Q5-$Q$39)/$Q$39</f>
+        <v>5.6065356540439079E-2</v>
+      </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
@@ -2152,7 +5462,6 @@
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="8"/>
-      <c r="R6" s="6"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="P7" s="3"/>
@@ -2216,6 +5525,10 @@
         <f t="shared" ref="Q6:Q39" si="2">K10-(K9-460.15205)</f>
         <v>1.3223963999989792</v>
       </c>
+      <c r="R9">
+        <f t="shared" ref="R5:R16" si="3">(Q9-$Q$39)/$Q$39</f>
+        <v>-0.22450045706794541</v>
+      </c>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
     </row>
@@ -2224,7 +5537,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -2319,6 +5632,10 @@
         <f t="shared" si="2"/>
         <v>1.771326099998987</v>
       </c>
+      <c r="R13">
+        <f t="shared" si="3"/>
+        <v>3.8767634979869632E-2</v>
+      </c>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
     </row>
@@ -2421,6 +5738,10 @@
       <c r="Q17" s="8">
         <f t="shared" si="2"/>
         <v>1.7278517999984615</v>
+      </c>
+      <c r="R17">
+        <f t="shared" ref="R17:R19" si="4">(Q17-$Q$39)/$Q$39</f>
+        <v>1.3272783527064251E-2</v>
       </c>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
@@ -2514,6 +5835,10 @@
         <f t="shared" si="2"/>
         <v>1.7137591999999131</v>
       </c>
+      <c r="R20">
+        <f>(Q20-$Q$39)/$Q$39</f>
+        <v>5.0083895392955399E-3</v>
+      </c>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
     </row>
@@ -2614,6 +5939,10 @@
         <f t="shared" si="2"/>
         <v>2.5028093000000808</v>
       </c>
+      <c r="R24">
+        <f t="shared" ref="R21:R38" si="5">(Q24-$Q$39)/$Q$39</f>
+        <v>0.46773499095857829</v>
+      </c>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
     </row>
@@ -2691,16 +6020,20 @@
         <v>-0.33929999999999999</v>
       </c>
       <c r="O27">
-        <f t="shared" ref="O27:O64" si="3">AVERAGE(M27:N27)</f>
+        <f t="shared" ref="O27:O64" si="6">AVERAGE(M27:N27)</f>
         <v>-6.1699999999999991E-2</v>
       </c>
       <c r="P27" s="3">
-        <f t="shared" ref="P27:P64" si="4">K28-K27</f>
+        <f t="shared" ref="P27:P64" si="7">K28-K27</f>
         <v>-458.42866569999933</v>
       </c>
       <c r="Q27" s="8">
         <f t="shared" si="2"/>
         <v>1.7233843000012712</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="5"/>
+        <v>1.0652885132095301E-2</v>
       </c>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
@@ -2788,16 +6121,20 @@
         <v>-0.33489999999999998</v>
       </c>
       <c r="O31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-5.8899999999999994E-2</v>
       </c>
       <c r="P31" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-458.43399979999958</v>
       </c>
       <c r="Q31" s="8">
         <f t="shared" si="2"/>
         <v>1.7180502000010165</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="5"/>
+        <v>7.5247821577113863E-3</v>
       </c>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
@@ -2885,16 +6222,20 @@
         <v>-0.12479999999999999</v>
       </c>
       <c r="O35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-6.7500000000000004E-2</v>
       </c>
       <c r="P35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-458.45270160000109</v>
       </c>
       <c r="Q35" s="8">
         <f t="shared" si="2"/>
         <v>1.6993483999995078</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="5"/>
+        <v>-3.4426080689920965E-3</v>
       </c>
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
@@ -2982,17 +6323,21 @@
         <v>-0.33019999999999999</v>
       </c>
       <c r="O39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-6.2699999999999992E-2</v>
       </c>
       <c r="P39" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-458.44683120000082</v>
       </c>
       <c r="Q39" s="8">
         <f t="shared" si="2"/>
         <v>1.7052187999997841</v>
       </c>
+      <c r="R39">
+        <f>(Q39-$Q$39)/$Q$39</f>
+        <v>0</v>
+      </c>
       <c r="T39" s="6"/>
       <c r="U39" s="6"/>
     </row>
@@ -3037,7 +6382,7 @@
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T43" s="6"/>
       <c r="U43" s="6"/>
@@ -3169,11 +6514,11 @@
     </row>
     <row r="64" spans="2:21" x14ac:dyDescent="0.2">
       <c r="O64" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S64" s="6"/>
@@ -3291,30 +6636,31 @@
   <ignoredErrors>
     <ignoredError sqref="O31:P31" evalError="1"/>
   </ignoredErrors>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FF3DB4-F55F-0B49-AD2B-5509731BE8F4}">
-  <dimension ref="B4:O8"/>
+  <dimension ref="B4:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
@@ -3326,10 +6672,10 @@
         <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K6" t="s">
         <v>27</v>
@@ -3347,7 +6693,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -3389,13 +6735,17 @@
         <f>K8-K7</f>
         <v>-458.42695870000171</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P7">
+        <f>O7+460.15205</f>
+        <v>1.7250912999982688</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -3417,6 +6767,114 @@
       </c>
       <c r="K8">
         <v>-25227.2917161</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F11">
+        <v>0.01</v>
+      </c>
+      <c r="G11">
+        <v>800</v>
+      </c>
+      <c r="H11">
+        <v>881</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>-24768.860959500002</v>
+      </c>
+      <c r="N11" t="e">
+        <f>AVERAGE((L11:M11))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O11">
+        <f>K12-K11</f>
+        <v>-458.42463289999796</v>
+      </c>
+      <c r="P11">
+        <f>O11+460.15205</f>
+        <v>1.7274171000020146</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F12">
+        <v>0.01</v>
+      </c>
+      <c r="G12">
+        <v>800</v>
+      </c>
+      <c r="H12">
+        <v>881</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <v>-25227.2855924</v>
       </c>
     </row>
   </sheetData>
@@ -3426,25 +6884,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90C5FF2-D8D0-4349-80EC-68F7DB260FDB}">
-  <dimension ref="B3:O7"/>
+  <dimension ref="B3:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
@@ -3456,10 +6914,10 @@
         <v>26</v>
       </c>
       <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
         <v>39</v>
-      </c>
-      <c r="I5" t="s">
-        <v>38</v>
       </c>
       <c r="K5" t="s">
         <v>27</v>
@@ -3477,9 +6935,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3516,11 +6977,18 @@
         <f>K7-K6</f>
         <v>-458.43829080000069</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P6">
+        <f>O6+460.15205</f>
+        <v>1.7137591999992878</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>20</v>
       </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
       <c r="D7">
         <v>1</v>
       </c>
@@ -3541,6 +7009,210 @@
       </c>
       <c r="K7">
         <v>-13000.0954435</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F10">
+        <v>0.01</v>
+      </c>
+      <c r="G10">
+        <v>800</v>
+      </c>
+      <c r="H10">
+        <v>881</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>-16617.412195199999</v>
+      </c>
+      <c r="N10" t="e">
+        <f t="shared" ref="N10" si="1">AVERAGE(L10:M10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O10">
+        <f>K11-K10</f>
+        <v>-458.41742490000252</v>
+      </c>
+      <c r="P10">
+        <f>O10+460.15205</f>
+        <v>1.7346250999974586</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F11">
+        <v>0.01</v>
+      </c>
+      <c r="G11">
+        <v>800</v>
+      </c>
+      <c r="H11">
+        <v>881</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>-17075.829620100001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F14">
+        <v>0.01</v>
+      </c>
+      <c r="G14">
+        <v>800</v>
+      </c>
+      <c r="H14">
+        <v>881</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="N14" t="e">
+        <f t="shared" ref="N14" si="2">AVERAGE(L14:M14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O14">
+        <f>K15-K14</f>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f>O14+460.15205</f>
+        <v>460.15204999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F15">
+        <v>0.01</v>
+      </c>
+      <c r="G15">
+        <v>800</v>
+      </c>
+      <c r="H15">
+        <v>881</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3550,10 +7222,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5D53CE-BD7A-6748-ADA6-17B85FC90549}">
-  <dimension ref="C3:Q27"/>
+  <dimension ref="C3:R27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3561,17 +7233,17 @@
     <col min="17" max="17" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C5">
         <v>800</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -3580,16 +7252,16 @@
         <v>25</v>
       </c>
       <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
         <v>39</v>
       </c>
-      <c r="I5" t="s">
-        <v>38</v>
-      </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M5" t="s">
         <v>30</v>
@@ -3604,10 +7276,10 @@
         <v>29</v>
       </c>
       <c r="Q5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="3:17" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>19</v>
       </c>
@@ -3653,8 +7325,12 @@
         <f>L7-(L6-460.15205)</f>
         <v>1.6993483999995078</v>
       </c>
-    </row>
-    <row r="7" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R6">
+        <f>(Q6-$Q$6)/$Q$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -3685,17 +7361,17 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:18" x14ac:dyDescent="0.2">
       <c r="F8" s="7"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>700</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
@@ -3704,18 +7380,18 @@
         <v>25</v>
       </c>
       <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
         <v>39</v>
       </c>
-      <c r="I9" t="s">
-        <v>38</v>
-      </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>19</v>
       </c>
@@ -3761,8 +7437,12 @@
         <f t="shared" ref="Q7:Q14" si="3">L11-(L10-460.15205)</f>
         <v>1.7039843000002293</v>
       </c>
-    </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R10">
+        <f t="shared" ref="R7:R26" si="4">(Q10-$Q$6)/$Q$6</f>
+        <v>2.7280456442732941E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -3793,16 +7473,16 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:18" x14ac:dyDescent="0.2">
       <c r="P12" s="3"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>600</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
@@ -3811,18 +7491,18 @@
         <v>25</v>
       </c>
       <c r="H13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s">
         <v>39</v>
       </c>
-      <c r="I13" t="s">
-        <v>38</v>
-      </c>
       <c r="J13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -3868,8 +7548,12 @@
         <f t="shared" si="3"/>
         <v>1.7097341000007873</v>
       </c>
-    </row>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R14">
+        <f t="shared" si="4"/>
+        <v>6.1115778267025658E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -3900,17 +7584,17 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:18" x14ac:dyDescent="0.2">
       <c r="F16" s="7"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17">
         <v>500</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
         <v>24</v>
@@ -3919,16 +7603,16 @@
         <v>25</v>
       </c>
       <c r="H17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" t="s">
         <v>39</v>
       </c>
-      <c r="I17" t="s">
-        <v>38</v>
-      </c>
       <c r="J17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M17" t="s">
         <v>30</v>
@@ -3943,10 +7627,10 @@
         <v>29</v>
       </c>
       <c r="Q17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>19</v>
       </c>
@@ -3985,15 +7669,19 @@
         <v>-6.7399999999999988E-2</v>
       </c>
       <c r="P18" s="3">
-        <f t="shared" ref="P18:P19" si="4">L19-L18</f>
+        <f t="shared" ref="P18:P19" si="5">L19-L18</f>
         <v>-458.43842530000074</v>
       </c>
       <c r="Q18" s="2">
         <f>L19-(L18-460.15205)</f>
         <v>1.7136246999998548</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18">
+        <f t="shared" si="4"/>
+        <v>8.4010436002123507E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>20</v>
       </c>
@@ -4024,15 +7712,15 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>400</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
         <v>24</v>
@@ -4041,16 +7729,16 @@
         <v>25</v>
       </c>
       <c r="H21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" t="s">
         <v>39</v>
       </c>
-      <c r="I21" t="s">
-        <v>38</v>
-      </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M21" t="s">
         <v>30</v>
@@ -4065,10 +7753,10 @@
         <v>29</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>19</v>
       </c>
@@ -4107,15 +7795,19 @@
         <v>-7.0650000000000004E-2</v>
       </c>
       <c r="P22" s="3">
-        <f t="shared" ref="P22:P23" si="5">L23-L22</f>
+        <f t="shared" ref="P22:P23" si="6">L23-L22</f>
         <v>-458.28810820000035</v>
       </c>
       <c r="Q22" s="2">
         <f>L23-(L22-460.15205)</f>
         <v>1.8639418000002479</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22">
+        <f t="shared" si="4"/>
+        <v>9.6856771690130017E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>20</v>
       </c>
@@ -4146,15 +7838,15 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="2"/>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="Q24" s="2"/>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25">
         <v>300</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
         <v>24</v>
@@ -4163,16 +7855,16 @@
         <v>25</v>
       </c>
       <c r="H25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" t="s">
         <v>39</v>
       </c>
-      <c r="I25" t="s">
-        <v>38</v>
-      </c>
       <c r="J25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M25" t="s">
         <v>30</v>
@@ -4187,10 +7879,10 @@
         <v>29</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>19</v>
       </c>
@@ -4229,15 +7921,19 @@
         <v>-8.7899999999999992E-2</v>
       </c>
       <c r="P26" s="3">
-        <f t="shared" ref="P26:P27" si="6">L27-L26</f>
+        <f t="shared" ref="P26:P27" si="7">L27-L26</f>
         <v>-456.8089899000006</v>
       </c>
       <c r="Q26" s="2">
         <f>L27-(L26-460.15205)</f>
         <v>3.3430601000000024</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26">
+        <f t="shared" si="4"/>
+        <v>0.96725998035539429</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>20</v>
       </c>
@@ -4270,25 +7966,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC128D54-F998-7145-AF87-4CAEE58A6435}">
-  <dimension ref="B3:Q21"/>
+  <dimension ref="B3:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
@@ -4297,19 +7994,19 @@
         <v>25</v>
       </c>
       <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
         <v>39</v>
       </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M3" t="s">
         <v>30</v>
@@ -4324,10 +8021,16 @@
         <v>29</v>
       </c>
       <c r="Q3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="R3" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -4366,8 +8069,12 @@
         <f>L5-(L4-460.15205)</f>
         <v>1.4103049999976065</v>
       </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R4">
+        <f t="shared" ref="R4:R7" si="1">(Q4-$Q$8)/Q4</f>
+        <v>0.53577559463086033</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -4401,12 +8108,12 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
         <v>24</v>
@@ -4415,16 +8122,16 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
         <v>39</v>
       </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" t="s">
         <v>30</v>
@@ -4439,10 +8146,10 @@
         <v>29</v>
       </c>
       <c r="Q7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -4474,20 +8181,27 @@
         <v>-112873.85752200001</v>
       </c>
       <c r="P8" s="3">
-        <f t="shared" ref="P8" si="1">L9-L8</f>
+        <f t="shared" ref="P8" si="2">L9-L8</f>
         <v>-459.49735199999122</v>
       </c>
       <c r="Q8" s="2">
         <f>L9-(L8-460.15205)</f>
         <v>0.65469800001301337</v>
       </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R8">
+        <f>(Q8-$Q$8)/Q8</f>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -4516,12 +8230,12 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
         <v>24</v>
@@ -4530,19 +8244,19 @@
         <v>25</v>
       </c>
       <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
         <v>39</v>
       </c>
-      <c r="H12" t="s">
-        <v>38</v>
-      </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M12" t="s">
         <v>30</v>
@@ -4557,10 +8271,10 @@
         <v>29</v>
       </c>
       <c r="Q12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -4592,11 +8306,11 @@
         <v>-50166.479172200001</v>
       </c>
       <c r="P13" s="3">
-        <f t="shared" ref="P13" si="2">L14-L13</f>
+        <f t="shared" ref="P13" si="3">L14-L13</f>
         <v>-459.13675579999835</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>20</v>
       </c>
@@ -4632,10 +8346,14 @@
         <f>L14-(L13-460.15205)</f>
         <v>1.0152941999986069</v>
       </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R14">
+        <f t="shared" ref="R9:R29" si="4">(Q14-$Q$8)/Q14</f>
+        <v>0.35516424696022919</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -4669,9 +8387,9 @@
         <v>4.1055218154069735</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -4705,12 +8423,12 @@
         <v>2.7077194077064632</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
         <v>24</v>
@@ -4719,19 +8437,19 @@
         <v>25</v>
       </c>
       <c r="G19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s">
         <v>39</v>
       </c>
-      <c r="H19" t="s">
-        <v>38</v>
-      </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M19" t="s">
         <v>30</v>
@@ -4746,15 +8464,15 @@
         <v>29</v>
       </c>
       <c r="Q19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -4766,7 +8484,7 @@
         <v>0.01</v>
       </c>
       <c r="G20">
-        <v>551</v>
+        <v>441</v>
       </c>
       <c r="H20">
         <v>5</v>
@@ -4779,19 +8497,23 @@
       </c>
       <c r="P20" s="3">
         <f>L21-L20</f>
-        <v>0</v>
+        <v>-201119.72708800001</v>
       </c>
       <c r="Q20" s="2">
         <f>L21-(L20-460.15205)</f>
-        <v>460.15204999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+        <v>-200659.57503800001</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="4"/>
+        <v>1.000003262729924</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -4803,7 +8525,7 @@
         <v>0.01</v>
       </c>
       <c r="G21">
-        <v>551</v>
+        <v>441</v>
       </c>
       <c r="H21">
         <v>5</v>
@@ -4814,8 +8536,220 @@
       <c r="J21">
         <v>700</v>
       </c>
+      <c r="L21">
+        <v>-201119.72708800001</v>
+      </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="2"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" t="s">
+        <v>37</v>
+      </c>
+      <c r="M23" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F24">
+        <v>0.01</v>
+      </c>
+      <c r="G24">
+        <v>881</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>700</v>
+      </c>
+      <c r="L24">
+        <v>-50166.479172200001</v>
+      </c>
+      <c r="P24" s="3">
+        <f t="shared" ref="P24" si="5">L25-L24</f>
+        <v>-459.13676870000199</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F25">
+        <v>0.01</v>
+      </c>
+      <c r="G25">
+        <v>881</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>700</v>
+      </c>
+      <c r="L25">
+        <v>-50625.615940900003</v>
+      </c>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="2">
+        <f>L25-(L24-460.15205)</f>
+        <v>1.0152812999949674</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="4"/>
+        <v>0.35515605377912646</v>
+      </c>
+      <c r="S25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F28">
+        <v>0.01</v>
+      </c>
+      <c r="G28">
+        <v>16161</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>700</v>
+      </c>
+      <c r="L28">
+        <v>-12541.619888499999</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" ref="P28" si="6">L29-L28</f>
+        <v>-458.6041965000004</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F29">
+        <v>0.01</v>
+      </c>
+      <c r="G29">
+        <v>16161</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>700</v>
+      </c>
+      <c r="L29">
+        <v>-13000.224085</v>
+      </c>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="2">
+        <f>L29-(L28-460.15205)</f>
+        <v>1.5478535000002012</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="4"/>
+        <v>0.57702844615919513</v>
+      </c>
+      <c r="S29">
+        <v>2.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4824,22 +8758,1381 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578A1A54-CAA0-D146-B899-917B401DB322}">
-  <dimension ref="B4:B10"/>
+  <dimension ref="B4:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F5">
+        <v>0.01</v>
+      </c>
+      <c r="G5">
+        <v>551</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>700</v>
+      </c>
+      <c r="L5">
+        <v>-112873.586127</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" ref="P5" si="0">L6-L5</f>
+        <v>-459.48263600000064</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>L6-(L5-460.15205)</f>
+        <v>0.66941400000359863</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F6">
+        <v>0.01</v>
+      </c>
+      <c r="G6">
+        <v>551</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>700</v>
+      </c>
+      <c r="L6">
+        <v>-113333.068763</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F9">
+        <v>0.01</v>
+      </c>
+      <c r="G9">
+        <v>551</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>700</v>
+      </c>
+      <c r="L9">
+        <v>-112873.64632499999</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" ref="P9" si="1">L10-L9</f>
+        <v>-459.48983600000793</v>
+      </c>
+      <c r="Q9" s="2">
+        <f>L10-(L9-460.15205)</f>
+        <v>0.66221399999631103</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F10">
+        <v>0.01</v>
+      </c>
+      <c r="G10">
+        <v>551</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>700</v>
+      </c>
+      <c r="L10">
+        <v>-113333.136161</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E11" s="7"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F13">
+        <v>0.01</v>
+      </c>
+      <c r="G13">
+        <v>551</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>700</v>
+      </c>
+      <c r="L13">
+        <v>-112873.685917</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" ref="P13" si="2">L14-L13</f>
+        <v>112873.685917</v>
+      </c>
+      <c r="Q13" s="2">
+        <f>L14-(L13-460.15205)</f>
+        <v>113333.837967</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F14">
+        <v>0.01</v>
+      </c>
+      <c r="G14">
+        <v>551</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>700</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F17">
+        <v>0.01</v>
+      </c>
+      <c r="G17">
+        <v>551</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>700</v>
+      </c>
+      <c r="L17">
+        <v>-112873.706494</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" ref="P17" si="3">L18-L17</f>
+        <v>-459.50790599999891</v>
+      </c>
+      <c r="Q17" s="2">
+        <f>L18-(L17-460.15205)</f>
+        <v>0.64414400000532623</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F18">
+        <v>0.01</v>
+      </c>
+      <c r="G18">
+        <v>551</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>700</v>
+      </c>
+      <c r="L18">
+        <v>-113333.2144</v>
+      </c>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F21">
+        <v>0.01</v>
+      </c>
+      <c r="G21">
+        <v>551</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>700</v>
+      </c>
+      <c r="L21">
+        <v>-112873.70976100001</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" ref="P21" si="4">L22-L21</f>
+        <v>-459.51387299998896</v>
+      </c>
+      <c r="Q21" s="2">
+        <f>L22-(L21-460.15205)</f>
+        <v>0.63817700001527555</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F22">
+        <v>0.01</v>
+      </c>
+      <c r="G22">
+        <v>551</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>700</v>
+      </c>
+      <c r="L22">
+        <v>-113333.22363399999</v>
+      </c>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDF7550-26B1-9F42-8962-2AF833403A4B}">
+  <dimension ref="B5:R37"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F8">
+        <v>0.01</v>
+      </c>
+      <c r="G8">
+        <v>881</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>500</v>
+      </c>
+      <c r="P8" s="3">
+        <f>L9-L8</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <f>L9-(L8-460.15205)</f>
+        <v>460.15204999999997</v>
+      </c>
+      <c r="R8">
+        <f t="shared" ref="R8" si="0">(Q8-$Q$8)/Q8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F9">
+        <v>0.01</v>
+      </c>
+      <c r="G9">
+        <v>881</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>500</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F12">
+        <v>0.01</v>
+      </c>
+      <c r="G12">
+        <v>441</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>500</v>
+      </c>
+      <c r="L12">
+        <v>-50166.209935600004</v>
+      </c>
+      <c r="P12" s="3">
+        <f>L13-L12</f>
+        <v>-459.15711299999384</v>
+      </c>
+      <c r="Q12" s="2">
+        <f>L13-(L12-460.15205)</f>
+        <v>0.99493700000311946</v>
+      </c>
+      <c r="R12">
+        <f t="shared" ref="R12" si="1">(Q12-$Q$8)/Q12</f>
+        <v>-461.49365537572453</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F13">
+        <v>0.01</v>
+      </c>
+      <c r="G13">
+        <v>441</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>500</v>
+      </c>
+      <c r="L13">
+        <v>-50625.367048599997</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="2">
+        <f>L14-(L12-460.15205)</f>
+        <v>1.3868776000017533</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F14">
+        <v>0.01</v>
+      </c>
+      <c r="G14">
+        <v>441</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>500</v>
+      </c>
+      <c r="L14">
+        <v>-50624.975107999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F17">
+        <v>0.01</v>
+      </c>
+      <c r="G17">
+        <v>331</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>500</v>
+      </c>
+      <c r="L17">
+        <v>-112873.13766199999</v>
+      </c>
+      <c r="P17" s="3">
+        <f>L18-L17</f>
+        <v>-459.35717300001124</v>
+      </c>
+      <c r="Q17" s="2">
+        <f>L18-(L17-460.15205)</f>
+        <v>0.79487699999299366</v>
+      </c>
+      <c r="R17">
+        <f t="shared" ref="R17" si="2">(Q17-$Q$8)/Q17</f>
+        <v>-577.8971752913418</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F18">
+        <v>0.01</v>
+      </c>
+      <c r="G18">
+        <v>331</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>500</v>
+      </c>
+      <c r="L18">
+        <v>-113332.494835</v>
+      </c>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="2">
+        <f>L19-(L17-460.15205)</f>
+        <v>1.3292979999969248</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F19">
+        <v>0.01</v>
+      </c>
+      <c r="G19">
+        <v>331</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>500</v>
+      </c>
+      <c r="L19">
+        <v>-113331.960414</v>
+      </c>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="2">
+        <f>L20-(L17-443.674358207704)</f>
+        <v>2.7383792077016551</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F20">
+        <v>0.01</v>
+      </c>
+      <c r="G20">
+        <v>331</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>500</v>
+      </c>
+      <c r="L20">
+        <v>-113314.073641</v>
+      </c>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" t="s">
+        <v>37</v>
+      </c>
+      <c r="M22" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F23">
+        <v>0.01</v>
+      </c>
+      <c r="G23">
+        <v>221</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>500</v>
+      </c>
+      <c r="L23">
+        <v>-200648.412319</v>
+      </c>
+      <c r="P23" s="3">
+        <f>L24-L23</f>
+        <v>-459.63001500000246</v>
+      </c>
+      <c r="Q23" s="2">
+        <f>L24-(L23-460.15205)</f>
+        <v>0.52203500000177883</v>
+      </c>
+      <c r="R23">
+        <f t="shared" ref="R23" si="3">(Q23-$Q$8)/Q23</f>
+        <v>-880.45823555591483</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F24">
+        <v>0.01</v>
+      </c>
+      <c r="G24">
+        <v>221</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>500</v>
+      </c>
+      <c r="L24">
+        <v>-201108.042334</v>
+      </c>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="2">
+        <f>L25-(L23-460.15205)</f>
+        <v>1.2549200000066776</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F25">
+        <v>0.01</v>
+      </c>
+      <c r="G25">
+        <v>221</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>500</v>
+      </c>
+      <c r="L25">
+        <v>-201107.30944899999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L32">
+        <v>-113333.223749</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L33">
+        <v>-112873.70891099999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L34">
+        <f>L32-(L33-460.15205)</f>
+        <v>0.63721200000145473</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" t="s">
+        <v>37</v>
+      </c>
+      <c r="M35" t="s">
+        <v>30</v>
+      </c>
+      <c r="N35" t="s">
+        <v>31</v>
+      </c>
+      <c r="O35" t="s">
+        <v>28</v>
+      </c>
+      <c r="P35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F36">
+        <v>0.01</v>
+      </c>
+      <c r="G36">
+        <v>551</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>700</v>
+      </c>
+      <c r="L36">
+        <v>-112873.70891099999</v>
+      </c>
+      <c r="P36" s="3">
+        <f>L36-L37</f>
+        <v>459.51565500001016</v>
+      </c>
+      <c r="Q36" s="2">
+        <f>L37-(L36-460.15205)</f>
+        <v>0.63639499999408145</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F37">
+        <v>0.01</v>
+      </c>
+      <c r="G37">
+        <v>551</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>700</v>
+      </c>
+      <c r="L37">
+        <v>-113333.224566</v>
+      </c>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="2">
+        <f>L38-(L37-460.15205)</f>
+        <v>113793.37661600001</v>
       </c>
     </row>
   </sheetData>
